--- a/biology/Médecine/Liste_des_symptômes_en_médecine_humaine/Liste_des_symptômes_en_médecine_humaine.xlsx
+++ b/biology/Médecine/Liste_des_symptômes_en_médecine_humaine/Liste_des_symptômes_en_médecine_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de symptômes n'est pas (encore) exhaustive. Voir aussi une liste alphabétique de signes médicaux (signes cliniques).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptômes généraux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amaigrissement
 Anorexie
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>En cardiologie et maladies des vaisseaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bradycardie
 Claudication
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>En hépato-gastro-entérologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ascite
 Ballonnement abdominal
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +653,9 @@
           <t>En pneumologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Apnée
 Bradypnée
@@ -656,7 +676,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,7 +694,9 @@
           <t>En urologie et néphrologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anurie
 Chylurie
@@ -698,7 +720,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -717,6 +739,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -724,7 +748,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -743,6 +767,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,7 +776,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -768,7 +794,9 @@
           <t>En rhumatologie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Douleur articulaire
 Raideur (rhumatologie)
@@ -792,7 +820,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -810,7 +838,9 @@
           <t>En endocrinologie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Goitre
 Obésité
@@ -839,7 +869,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -857,7 +887,9 @@
           <t>En hémato-cancérologie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Pâleur
 Érythrose cutanée
@@ -875,7 +907,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -893,7 +925,9 @@
           <t>En oto-rhino-laryngologie</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Surdité
 Acouphènes
@@ -913,7 +947,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_sympt%C3%B4mes_en_m%C3%A9decine_humaine</t>
+          <t>Liste_des_symptômes_en_médecine_humaine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -931,7 +965,9 @@
           <t>En dermatologie</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Macule
 Papule
